--- a/xlsx/MSNBC_intext.xlsx
+++ b/xlsx/MSNBC_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="708">
   <si>
     <t>MSNBC</t>
   </si>
@@ -29,7 +29,7 @@
     <t>NBC Universal</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_MSNBC</t>
+    <t>政策_政策_维基百科_MSNBC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/480i</t>
@@ -71,31 +71,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>新聞頻道</t>
+    <t>新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -107,7 +104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Msnbc.com</t>
@@ -119,37 +116,37 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%80%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>新聞週刊</t>
+    <t>新闻周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華盛頓郵報</t>
+    <t>华盛顿邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>通用電器</t>
+    <t>通用电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E7%92%B0%E7%90%83</t>
   </si>
   <si>
-    <t>NBC環球</t>
+    <t>NBC环球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNBC</t>
@@ -209,25 +206,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNBC%E6%AD%90%E6%B4%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CNBC歐洲台</t>
+    <t>CNBC欧洲台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ITN</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E5%A4%9C%E9%96%93%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC夜間新聞</t>
+    <t>NBC夜间新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%C2%B7%E6%96%AF%E5%8D%A1%E4%BC%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>喬·斯卡伯勒</t>
+    <t>乔·斯卡伯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC_News</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A6%8B%E6%96%B0%E8%81%9E%E7%95%8C</t>
   </si>
   <si>
-    <t>會見新聞界</t>
+    <t>会见新闻界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MSN</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>美國國旗</t>
+    <t>美国国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A3%AB%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>霍士新聞</t>
+    <t>霍士新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E7%92%B0%E7%90%83%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>NBC環球集團</t>
+    <t>NBC环球集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%8D%A1%E6%96%AF%E7%89%B9</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>環球影業</t>
+    <t>环球影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%B9%B4%E5%8D%8E%E7%94%B5%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
@@ -407,25 +404,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E9%BB%9E%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>焦點影業</t>
+    <t>焦点影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E7%92%B0%E7%90%83%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>NBC環球娛樂</t>
+    <t>NBC环球娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E6%98%8E%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>照明娛樂</t>
+    <t>照明娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9A%9B%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>聯合國際影業</t>
+    <t>联合国际影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Working_Title_Films</t>
@@ -437,19 +434,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A2%E5%B7%A5%E5%A0%B4%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>夢工場動畫</t>
+    <t>梦工场动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E4%B8%BB%E9%A1%8C%E6%A8%82%E5%9C%92%E5%8F%8A%E5%BA%A6%E5%81%87%E6%9D%91</t>
   </si>
   <si>
-    <t>環球主題樂園及度假村</t>
+    <t>环球主题乐园及度假村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>好萊塢環球影城</t>
+    <t>好莱坞环球影城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Universal_CityWalk</t>
@@ -461,31 +458,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E5%A4%9A%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>奧蘭多環球影城</t>
+    <t>奥兰多环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>佛羅里達環球影城</t>
+    <t>佛罗里达环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%92%E9%9A%AA%E5%B3%B6%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
-    <t>冒險島樂園</t>
+    <t>冒险岛乐园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>日本環球影城</t>
+    <t>日本环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>新加坡環球影城</t>
+    <t>新加坡环球影城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E7%8E%AF%E7%90%83%E5%BD%B1%E5%9F%8E</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>韓國環球影城</t>
+    <t>韩国环球影城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NBCUniversal_Cable</t>
@@ -545,19 +542,19 @@
     <t>https://zh.wikipedia.org/wiki/USA%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>USA電視台</t>
+    <t>USA电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E6%9C%89%E7%B7%9A%E8%A3%BD%E4%BD%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>環球有線製作公司</t>
+    <t>环球有线制作公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B2%BE%E5%BD%A9%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>美國精彩電視台</t>
+    <t>美国精彩电视台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mun2</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>合資公司</t>
+    <t>合资公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PBS_Kids_Sprout</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E9%AB%94%E8%82%B2%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>NBC體育集團</t>
+    <t>NBC体育集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%A4%AB%E9%A2%91%E9%81%93</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E9%AB%94%E8%82%B2%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>NBC體育電視網</t>
+    <t>NBC体育电视网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NHL_Network_(United_States)</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/CNBC%E4%BA%9E%E6%B4%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CNBC亞洲台</t>
+    <t>CNBC亚洲台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Class_CNBC</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%B6%93CNBC</t>
   </si>
   <si>
-    <t>日經CNBC</t>
+    <t>日经CNBC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SBS-CNBC</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/Diva_(%E9%9B%BB%E8%A6%96%E7%B6%B2)</t>
   </si>
   <si>
-    <t>Diva (電視網)</t>
+    <t>Diva (电视网)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Diva_Universal_(Italy)</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E5%BD%B1%E5%8A%87%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>環球影劇頻道</t>
+    <t>环球影剧频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Universal_Channel_(Australia)</t>
@@ -1451,13 +1448,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%9E%E5%BA%B7%E5%A7%86</t>
   </si>
   <si>
-    <t>維亞康姆</t>
+    <t>维亚康姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>派拉蒙電影公司</t>
+    <t>派拉蒙电影公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E9%9B%86%E5%9B%A2</t>
@@ -1505,15 +1502,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>國際新聞頻道</t>
+    <t>国际新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
   </si>
   <si>
-    <t>亚洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%8D%AB%E6%98%9F%E7%94%B5%E8%A7%86%E5%8F%B0</t>
   </si>
   <si>
@@ -1571,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E8%A1%9B%E8%A6%96%E8%B3%87%E8%A8%8A%E5%8F%B0</t>
   </si>
   <si>
-    <t>鳳凰衛視資訊台</t>
+    <t>凤凰卫视资讯台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E6%96%B0%E9%97%BB%E5%8F%B0</t>
@@ -1583,79 +1577,76 @@
     <t>https://zh.wikipedia.org/wiki/CNBC%E4%BA%9A%E6%B4%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CNBC亚洲台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A3%AE%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>東森新聞台</t>
+    <t>东森新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A3%AE%E8%B2%A1%E7%B6%93%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>東森財經新聞台</t>
+    <t>东森财经新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%AB%8B%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>三立新聞台</t>
+    <t>三立新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A9%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>中天新聞台</t>
+    <t>中天新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>民視新聞台</t>
+    <t>民视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E4%BB%A3%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>年代新聞台</t>
+    <t>年代新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%87%A1%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>非凡新聞台</t>
+    <t>非凡新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%B9%E9%9B%BB%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>壹電視新聞台</t>
+    <t>壹电视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>台視新聞台</t>
+    <t>台视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%A6%96%E6%96%B0%E8%81%9E%E8%B3%87%E8%A8%8A%E5%8F%B0</t>
   </si>
   <si>
-    <t>華視新聞資訊台</t>
+    <t>华视新闻资讯台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%A6%96%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>中視新聞台</t>
+    <t>中视新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A3%AE%E4%BA%9E%E6%B4%B2%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>東森亞洲新聞台</t>
+    <t>东森亚洲新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%AB%8BiNEWS%E5%8F%B0</t>
@@ -1667,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%A6%96%E8%B2%A1%E7%B6%93%E5%8F%B0</t>
   </si>
   <si>
-    <t>台視財經台</t>
+    <t>台视财经台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHK_World_TV</t>
@@ -1685,7 +1676,7 @@
     <t>https://zh.wikipedia.org/wiki/TVBS%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>TVBS新聞台</t>
+    <t>TVBS新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YTN</t>
@@ -1703,25 +1694,25 @@
     <t>https://zh.wikipedia.org/wiki/Now%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>Now新聞台</t>
+    <t>Now新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>有線新聞台</t>
+    <t>有线新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B6%AB%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>無綫新聞台</t>
+    <t>无线新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TVB%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>TVB新聞台</t>
+    <t>TVB新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E6%98%8E%E6%96%B0%E9%97%BB</t>
@@ -1733,19 +1724,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E4%B8%96%E7%95%8C%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>英國廣播公司世界新聞頻道</t>
+    <t>英国广播公司世界新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司新聞台</t>
+    <t>英国广播公司新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E6%96%B0%E9%97%BB%E5%8F%B0</t>
@@ -1757,9 +1745,6 @@
     <t>https://zh.wikipedia.org/wiki/CNBC%E6%AC%A7%E6%B4%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>CNBC欧洲台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%B9%8B%E5%A3%B0%E7%94%B5%E8%A7%86%E5%8F%B0</t>
   </si>
   <si>
@@ -1805,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>彭博電視</t>
+    <t>彭博电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN%E5%9B%BD%E9%99%85%E6%96%B0%E9%97%BB%E7%BD%91%E7%BB%9C</t>
@@ -1817,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A3%AB%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>霍士新聞頻道</t>
+    <t>霍士新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%94%E7%A4%BE%E7%94%B5%E8%A7%86%E6%96%B0%E9%97%BB%E7%BD%B2</t>
@@ -1835,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E9%9B%BB%E8%A6%96%E5%8F%B0_(%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>南方電視台 (拉丁美洲)</t>
+    <t>南方电视台 (拉丁美洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E6%96%B0%E9%97%BB%E5%8F%B0</t>
@@ -1847,13 +1832,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
@@ -1895,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -1913,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -1931,13 +1916,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -1967,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -2003,21 +1988,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
   </si>
   <si>
-    <t>华盛顿邮报</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Politico</t>
   </si>
   <si>
@@ -2039,19 +2021,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -2069,13 +2051,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
   </si>
   <si>
-    <t>纽约时报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -2099,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -2111,13 +2090,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -2135,7 +2114,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -2147,19 +2126,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
 </sst>
 </file>
@@ -2849,7 +2828,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -2875,10 +2854,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -2904,10 +2883,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -2933,10 +2912,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2962,10 +2941,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -2991,10 +2970,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
@@ -3020,10 +2999,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3049,10 +3028,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -3078,10 +3057,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -3107,10 +3086,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
         <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
       </c>
       <c r="G21" t="n">
         <v>11</v>
@@ -3136,10 +3115,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3165,10 +3144,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3194,10 +3173,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>39</v>
@@ -3223,10 +3202,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>165</v>
@@ -3252,10 +3231,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3281,10 +3260,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -3310,10 +3289,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -3339,10 +3318,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -3368,10 +3347,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -3397,10 +3376,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3426,10 +3405,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3455,10 +3434,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>9</v>
@@ -3484,10 +3463,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>10</v>
@@ -3513,10 +3492,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -3542,10 +3521,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -3571,10 +3550,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3600,10 +3579,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -3629,10 +3608,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3658,10 +3637,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3687,10 +3666,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3716,10 +3695,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3745,10 +3724,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -3774,10 +3753,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3803,10 +3782,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3832,10 +3811,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3861,10 +3840,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>64</v>
@@ -3890,10 +3869,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3919,10 +3898,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3948,10 +3927,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3977,10 +3956,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4006,10 +3985,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4035,10 +4014,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -4064,10 +4043,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4093,10 +4072,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4122,10 +4101,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4151,10 +4130,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4180,10 +4159,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4209,10 +4188,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4238,10 +4217,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4267,10 +4246,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4296,10 +4275,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4325,10 +4304,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4354,10 +4333,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -4383,10 +4362,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4412,10 +4391,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4441,10 +4420,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4470,10 +4449,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4499,10 +4478,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4528,10 +4507,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4557,10 +4536,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4586,13 +4565,13 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
       </c>
-      <c r="F72" t="s">
-        <v>142</v>
-      </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -4615,10 +4594,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4644,10 +4623,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4673,10 +4652,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4702,10 +4681,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4731,10 +4710,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4760,10 +4739,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4789,10 +4768,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4818,10 +4797,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4847,10 +4826,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4876,10 +4855,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4905,10 +4884,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4934,10 +4913,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4963,10 +4942,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4992,10 +4971,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5021,10 +5000,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>21</v>
@@ -5050,10 +5029,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5079,10 +5058,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5108,10 +5087,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5137,10 +5116,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5166,10 +5145,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5195,10 +5174,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5224,10 +5203,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5253,10 +5232,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -5282,10 +5261,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5311,10 +5290,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5340,10 +5319,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -5369,10 +5348,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5398,10 +5377,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5427,10 +5406,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5456,10 +5435,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5485,10 +5464,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5514,10 +5493,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5543,10 +5522,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5572,10 +5551,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5601,10 +5580,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5630,10 +5609,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5659,10 +5638,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5688,10 +5667,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5717,10 +5696,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5746,10 +5725,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5775,10 +5754,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5804,10 +5783,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5833,10 +5812,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5862,10 +5841,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5891,10 +5870,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5920,10 +5899,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5949,10 +5928,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5978,10 +5957,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6007,10 +5986,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6036,10 +6015,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6065,10 +6044,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6094,10 +6073,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6123,10 +6102,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6152,10 +6131,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6181,10 +6160,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6210,10 +6189,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6239,10 +6218,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>9</v>
@@ -6268,10 +6247,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6297,10 +6276,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6326,10 +6305,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6355,10 +6334,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6384,10 +6363,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6413,10 +6392,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6442,10 +6421,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6471,10 +6450,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6500,10 +6479,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6529,10 +6508,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6558,10 +6537,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6587,10 +6566,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6616,10 +6595,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6645,10 +6624,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6674,10 +6653,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6703,10 +6682,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6732,10 +6711,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>44</v>
+      </c>
+      <c r="F146" t="s">
         <v>45</v>
-      </c>
-      <c r="F146" t="s">
-        <v>46</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6761,10 +6740,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6790,10 +6769,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6819,10 +6798,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6848,10 +6827,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6877,10 +6856,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>66</v>
+      </c>
+      <c r="F151" t="s">
         <v>67</v>
-      </c>
-      <c r="F151" t="s">
-        <v>68</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6906,10 +6885,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6935,10 +6914,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6964,10 +6943,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>288</v>
+      </c>
+      <c r="F154" t="s">
         <v>289</v>
-      </c>
-      <c r="F154" t="s">
-        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6993,10 +6972,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7022,10 +7001,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>288</v>
+      </c>
+      <c r="F156" t="s">
         <v>289</v>
-      </c>
-      <c r="F156" t="s">
-        <v>290</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7051,10 +7030,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7080,10 +7059,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>288</v>
+      </c>
+      <c r="F158" t="s">
         <v>289</v>
-      </c>
-      <c r="F158" t="s">
-        <v>290</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7109,10 +7088,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7138,10 +7117,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7167,10 +7146,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7196,10 +7175,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -7225,10 +7204,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7254,10 +7233,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7283,10 +7262,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7312,10 +7291,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7341,10 +7320,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7370,10 +7349,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7399,10 +7378,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>12</v>
@@ -7428,10 +7407,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7457,10 +7436,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
         <v>329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7486,10 +7465,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7515,10 +7494,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>332</v>
+      </c>
+      <c r="F173" t="s">
         <v>333</v>
-      </c>
-      <c r="F173" t="s">
-        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7544,10 +7523,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>334</v>
+      </c>
+      <c r="F174" t="s">
         <v>335</v>
-      </c>
-      <c r="F174" t="s">
-        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7573,10 +7552,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7602,10 +7581,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
         <v>339</v>
-      </c>
-      <c r="F176" t="s">
-        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7631,10 +7610,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
         <v>341</v>
-      </c>
-      <c r="F177" t="s">
-        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7660,10 +7639,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
         <v>343</v>
-      </c>
-      <c r="F178" t="s">
-        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7689,10 +7668,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
         <v>345</v>
-      </c>
-      <c r="F179" t="s">
-        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7718,10 +7697,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>346</v>
+      </c>
+      <c r="F180" t="s">
         <v>347</v>
-      </c>
-      <c r="F180" t="s">
-        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7747,10 +7726,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
         <v>349</v>
-      </c>
-      <c r="F181" t="s">
-        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7776,10 +7755,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
         <v>351</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7805,10 +7784,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7834,10 +7813,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>355</v>
-      </c>
-      <c r="F184" t="s">
-        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>6</v>
@@ -7863,10 +7842,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>356</v>
+      </c>
+      <c r="F185" t="s">
         <v>357</v>
-      </c>
-      <c r="F185" t="s">
-        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7892,10 +7871,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F186" t="s">
         <v>359</v>
-      </c>
-      <c r="F186" t="s">
-        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7921,10 +7900,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
         <v>361</v>
-      </c>
-      <c r="F187" t="s">
-        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7950,10 +7929,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>362</v>
+      </c>
+      <c r="F188" t="s">
         <v>363</v>
-      </c>
-      <c r="F188" t="s">
-        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7979,10 +7958,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
         <v>365</v>
-      </c>
-      <c r="F189" t="s">
-        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8008,10 +7987,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
         <v>367</v>
-      </c>
-      <c r="F190" t="s">
-        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -8037,10 +8016,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>368</v>
+      </c>
+      <c r="F191" t="s">
         <v>369</v>
-      </c>
-      <c r="F191" t="s">
-        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8066,10 +8045,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
         <v>371</v>
-      </c>
-      <c r="F192" t="s">
-        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8095,10 +8074,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
         <v>373</v>
-      </c>
-      <c r="F193" t="s">
-        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8124,10 +8103,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>375</v>
-      </c>
-      <c r="F194" t="s">
-        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8153,10 +8132,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>376</v>
+      </c>
+      <c r="F195" t="s">
         <v>377</v>
-      </c>
-      <c r="F195" t="s">
-        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8182,10 +8161,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>378</v>
+      </c>
+      <c r="F196" t="s">
         <v>379</v>
-      </c>
-      <c r="F196" t="s">
-        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8211,10 +8190,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>380</v>
+      </c>
+      <c r="F197" t="s">
         <v>381</v>
-      </c>
-      <c r="F197" t="s">
-        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8240,10 +8219,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>382</v>
+      </c>
+      <c r="F198" t="s">
         <v>383</v>
-      </c>
-      <c r="F198" t="s">
-        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8269,10 +8248,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>384</v>
+      </c>
+      <c r="F199" t="s">
         <v>385</v>
-      </c>
-      <c r="F199" t="s">
-        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8298,10 +8277,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>386</v>
+      </c>
+      <c r="F200" t="s">
         <v>387</v>
-      </c>
-      <c r="F200" t="s">
-        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8327,10 +8306,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
         <v>389</v>
-      </c>
-      <c r="F201" t="s">
-        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8356,10 +8335,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
         <v>391</v>
-      </c>
-      <c r="F202" t="s">
-        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8385,10 +8364,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>392</v>
+      </c>
+      <c r="F203" t="s">
         <v>393</v>
-      </c>
-      <c r="F203" t="s">
-        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8414,10 +8393,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>394</v>
+      </c>
+      <c r="F204" t="s">
         <v>395</v>
-      </c>
-      <c r="F204" t="s">
-        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8443,10 +8422,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
         <v>397</v>
-      </c>
-      <c r="F205" t="s">
-        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8472,10 +8451,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
         <v>399</v>
-      </c>
-      <c r="F206" t="s">
-        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8501,10 +8480,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8530,10 +8509,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8559,10 +8538,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>404</v>
+      </c>
+      <c r="F209" t="s">
         <v>405</v>
-      </c>
-      <c r="F209" t="s">
-        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8588,10 +8567,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" t="s">
         <v>407</v>
-      </c>
-      <c r="F210" t="s">
-        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8617,10 +8596,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>408</v>
+      </c>
+      <c r="F211" t="s">
         <v>409</v>
-      </c>
-      <c r="F211" t="s">
-        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8646,10 +8625,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
         <v>411</v>
-      </c>
-      <c r="F212" t="s">
-        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8675,10 +8654,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>412</v>
+      </c>
+      <c r="F213" t="s">
         <v>413</v>
-      </c>
-      <c r="F213" t="s">
-        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8704,10 +8683,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
         <v>415</v>
-      </c>
-      <c r="F214" t="s">
-        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8733,10 +8712,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>416</v>
+      </c>
+      <c r="F215" t="s">
         <v>417</v>
-      </c>
-      <c r="F215" t="s">
-        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8762,10 +8741,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
         <v>419</v>
-      </c>
-      <c r="F216" t="s">
-        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8791,10 +8770,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>420</v>
+      </c>
+      <c r="F217" t="s">
         <v>421</v>
-      </c>
-      <c r="F217" t="s">
-        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8820,10 +8799,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>422</v>
+      </c>
+      <c r="F218" t="s">
         <v>423</v>
-      </c>
-      <c r="F218" t="s">
-        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8849,10 +8828,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>424</v>
+      </c>
+      <c r="F219" t="s">
         <v>425</v>
-      </c>
-      <c r="F219" t="s">
-        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8878,10 +8857,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
         <v>427</v>
-      </c>
-      <c r="F220" t="s">
-        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8907,10 +8886,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
         <v>429</v>
-      </c>
-      <c r="F221" t="s">
-        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8936,10 +8915,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
         <v>431</v>
-      </c>
-      <c r="F222" t="s">
-        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8965,10 +8944,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8994,10 +8973,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9023,10 +9002,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9052,10 +9031,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9081,10 +9060,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9110,10 +9089,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9139,10 +9118,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9168,10 +9147,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9197,10 +9176,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
         <v>449</v>
-      </c>
-      <c r="F231" t="s">
-        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9226,10 +9205,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
         <v>451</v>
-      </c>
-      <c r="F232" t="s">
-        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9255,10 +9234,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
         <v>453</v>
-      </c>
-      <c r="F233" t="s">
-        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9284,10 +9263,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
         <v>455</v>
-      </c>
-      <c r="F234" t="s">
-        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9313,10 +9292,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
         <v>457</v>
-      </c>
-      <c r="F235" t="s">
-        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9342,10 +9321,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
         <v>459</v>
-      </c>
-      <c r="F236" t="s">
-        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9371,10 +9350,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
         <v>461</v>
-      </c>
-      <c r="F237" t="s">
-        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9400,10 +9379,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
         <v>463</v>
-      </c>
-      <c r="F238" t="s">
-        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9429,10 +9408,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
         <v>465</v>
-      </c>
-      <c r="F239" t="s">
-        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9458,10 +9437,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
         <v>467</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9487,10 +9466,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
         <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9516,10 +9495,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>470</v>
+      </c>
+      <c r="F242" t="s">
         <v>471</v>
-      </c>
-      <c r="F242" t="s">
-        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9545,10 +9524,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>472</v>
+      </c>
+      <c r="F243" t="s">
         <v>473</v>
-      </c>
-      <c r="F243" t="s">
-        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9574,10 +9553,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>474</v>
+      </c>
+      <c r="F244" t="s">
         <v>475</v>
-      </c>
-      <c r="F244" t="s">
-        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9603,10 +9582,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>476</v>
+      </c>
+      <c r="F245" t="s">
         <v>477</v>
-      </c>
-      <c r="F245" t="s">
-        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9632,10 +9611,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F246" t="s">
         <v>479</v>
-      </c>
-      <c r="F246" t="s">
-        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9661,10 +9640,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" t="s">
         <v>481</v>
-      </c>
-      <c r="F247" t="s">
-        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9690,10 +9669,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>482</v>
+      </c>
+      <c r="F248" t="s">
         <v>483</v>
-      </c>
-      <c r="F248" t="s">
-        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9719,10 +9698,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>484</v>
+      </c>
+      <c r="F249" t="s">
         <v>485</v>
-      </c>
-      <c r="F249" t="s">
-        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9748,10 +9727,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>486</v>
+      </c>
+      <c r="F250" t="s">
         <v>487</v>
-      </c>
-      <c r="F250" t="s">
-        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9777,10 +9756,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>488</v>
+      </c>
+      <c r="F251" t="s">
         <v>489</v>
-      </c>
-      <c r="F251" t="s">
-        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9806,10 +9785,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>490</v>
+      </c>
+      <c r="F252" t="s">
         <v>491</v>
-      </c>
-      <c r="F252" t="s">
-        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9835,10 +9814,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>492</v>
+      </c>
+      <c r="F253" t="s">
         <v>493</v>
-      </c>
-      <c r="F253" t="s">
-        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>6</v>
@@ -9864,10 +9843,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>494</v>
+      </c>
+      <c r="F254" t="s">
         <v>495</v>
-      </c>
-      <c r="F254" t="s">
-        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9893,10 +9872,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>65</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -9922,10 +9901,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9951,10 +9930,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9980,10 +9959,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10009,10 +9988,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10038,10 +10017,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10067,10 +10046,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10096,10 +10075,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10125,10 +10104,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10154,10 +10133,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10183,10 +10162,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10212,10 +10191,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10241,10 +10220,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>289</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10270,10 +10249,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10299,10 +10278,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10328,10 +10307,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10357,10 +10336,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10386,10 +10365,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10415,10 +10394,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10444,10 +10423,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10473,10 +10452,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10502,10 +10481,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10531,10 +10510,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10560,10 +10539,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10589,10 +10568,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10618,10 +10597,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10647,10 +10626,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10676,10 +10655,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10705,10 +10684,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>304</v>
+      </c>
+      <c r="F283" t="s">
         <v>305</v>
-      </c>
-      <c r="F283" t="s">
-        <v>306</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10734,10 +10713,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10763,10 +10742,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10792,10 +10771,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10821,10 +10800,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10850,10 +10829,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10879,10 +10858,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10908,10 +10887,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10937,10 +10916,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10966,10 +10945,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10995,10 +10974,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>63</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -11024,10 +11003,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11053,10 +11032,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11082,10 +11061,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11111,10 +11090,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>67</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11140,10 +11119,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11169,10 +11148,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F299" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11198,10 +11177,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F300" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11227,10 +11206,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F301" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11256,10 +11235,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F302" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11285,10 +11264,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F303" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11314,10 +11293,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F304" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11343,10 +11322,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11372,10 +11351,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11401,10 +11380,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11430,10 +11409,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11459,10 +11438,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11488,10 +11467,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11517,10 +11496,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11546,10 +11525,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11575,10 +11554,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11604,10 +11583,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11633,10 +11612,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11662,10 +11641,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11691,10 +11670,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11720,10 +11699,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11749,10 +11728,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11778,10 +11757,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11807,10 +11786,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11836,10 +11815,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11865,10 +11844,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11894,10 +11873,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11923,10 +11902,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11952,10 +11931,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11981,10 +11960,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F327" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12010,10 +11989,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12039,10 +12018,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12068,10 +12047,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12097,10 +12076,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12126,10 +12105,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12155,10 +12134,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12184,10 +12163,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F334" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -12213,10 +12192,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12242,10 +12221,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12271,10 +12250,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12300,10 +12279,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12329,10 +12308,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12358,10 +12337,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12387,10 +12366,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>39</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12416,10 +12395,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12445,10 +12424,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F343" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12474,10 +12453,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F344" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12503,10 +12482,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F345" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12532,10 +12511,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12561,10 +12540,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F347" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12590,10 +12569,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12619,10 +12598,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F349" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12648,10 +12627,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F350" t="s">
-        <v>684</v>
+        <v>35</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12677,10 +12656,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F351" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12706,10 +12685,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F352" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12735,10 +12714,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F353" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12764,10 +12743,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F354" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12793,10 +12772,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F355" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12822,10 +12801,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F356" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12851,10 +12830,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F357" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12880,10 +12859,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F358" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12909,10 +12888,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F359" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12938,10 +12917,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F360" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12967,10 +12946,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F361" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12996,10 +12975,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F362" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13025,10 +13004,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F363" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13054,10 +13033,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F364" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13083,10 +13062,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F365" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
